--- a/data/Negociado_de_Policia/npprDS_ofensores_agrupados.xlsx
+++ b/data/Negociado_de_Policia/npprDS_ofensores_agrupados.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orlan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnper\Documents\ViolenciaGeneroPR\data\Negociado_de_Policia\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA6E3A5-83FE-447F-B4D2-DDA6BEBE6F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="5592" yWindow="1896" windowWidth="17280" windowHeight="9420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="15" r:id="rId1"/>
@@ -18,6 +19,7 @@
     <sheet name="2022" sheetId="8" r:id="rId4"/>
     <sheet name="2023" sheetId="12" r:id="rId5"/>
     <sheet name="2024" sheetId="10" r:id="rId6"/>
+    <sheet name="2025" sheetId="16" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="6">
   <si>
     <t>Mujeres</t>
   </si>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -363,18 +365,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -385,7 +387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -396,7 +398,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -407,7 +409,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -424,18 +426,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -446,7 +448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -457,7 +459,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -468,7 +470,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -485,18 +487,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -507,7 +509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -518,7 +520,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -529,7 +531,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -546,18 +548,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -568,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -579,7 +581,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -590,7 +592,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -607,18 +609,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -629,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -640,7 +642,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -651,7 +653,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -668,18 +670,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -690,7 +692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -701,7 +703,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -712,7 +714,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -721,6 +723,68 @@
       </c>
       <c r="C4">
         <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FA5D62-A2DA-4D94-857B-0AE80559D2CE}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>165</v>
+      </c>
+      <c r="C3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>67</v>
+      </c>
+      <c r="C4">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
